--- a/results/surrogate_comparison.xlsx
+++ b/results/surrogate_comparison.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TiAlloyNet</t>
+          <t>ELM_CPrPh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7215403318405151</v>
+        <v>0.6951521635055542</v>
       </c>
       <c r="D2" t="n">
-        <v>9.112970352172852</v>
+        <v>9.030872344970703</v>
       </c>
       <c r="E2" t="n">
-        <v>12.09071773395879</v>
+        <v>12.65063834407953</v>
       </c>
       <c r="F2" t="n">
-        <v>13.42210960388184</v>
+        <v>13.0310115814209</v>
       </c>
       <c r="G2" t="n">
         <v>89</v>
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TiAlloyNet</t>
+          <t>ELM_CPrPh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.728959321975708</v>
+        <v>0.7143540382385254</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7296295166016</v>
+        <v>114.5286178588867</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0144224102374</v>
+        <v>160.1627590140729</v>
       </c>
       <c r="F3" t="n">
-        <v>17.7956600189209</v>
+        <v>18.09307098388672</v>
       </c>
       <c r="G3" t="n">
         <v>99</v>
@@ -515,7 +515,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TiAlloyNet</t>
+          <t>ELM_CPrPh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7250828146934509</v>
+        <v>0.7082301378250122</v>
       </c>
       <c r="D4" t="n">
-        <v>117.659538269043</v>
+        <v>123.2314224243164</v>
       </c>
       <c r="E4" t="n">
-        <v>168.1430345810525</v>
+        <v>173.2200438567951</v>
       </c>
       <c r="F4" t="n">
-        <v>12.20405864715576</v>
+        <v>12.72440433502197</v>
       </c>
       <c r="G4" t="n">
         <v>93</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TiAlloyNet</t>
+          <t>ELM_CPrPh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1759103536605835</v>
+        <v>0.09508490562438965</v>
       </c>
       <c r="D5" t="n">
-        <v>5.214793682098389</v>
+        <v>5.509221076965332</v>
       </c>
       <c r="E5" t="n">
-        <v>7.915396605222555</v>
+        <v>8.294483824449989</v>
       </c>
       <c r="F5" t="n">
-        <v>58.18490219116211</v>
+        <v>63.80058670043945</v>
       </c>
       <c r="G5" t="n">
         <v>78</v>
@@ -569,27 +569,2457 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ELM_CPrPh</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8157362341880798</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.39761734008789</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40.70900569322776</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.46121692657471</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELM_C</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.612602710723877</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.30675315856934</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.2609746065448</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14.71942329406738</v>
+      </c>
+      <c r="G7" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELM_C</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7143063545227051</v>
+      </c>
+      <c r="D8" t="n">
+        <v>122.0186233520508</v>
+      </c>
+      <c r="E8" t="n">
+        <v>160.1761237669335</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19.2368106842041</v>
+      </c>
+      <c r="G8" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELM_C</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6698653697967529</v>
+      </c>
+      <c r="D9" t="n">
+        <v>131.6760406494141</v>
+      </c>
+      <c r="E9" t="n">
+        <v>184.2567735356017</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.55515384674072</v>
+      </c>
+      <c r="G9" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELM_C</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1816708445549011</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.651293754577637</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.887683161378686</v>
+      </c>
+      <c r="F10" t="n">
+        <v>107.3163986206055</v>
+      </c>
+      <c r="G10" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELM_C</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.686163067817688</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.49713134765625</v>
+      </c>
+      <c r="E11" t="n">
+        <v>53.12789054636227</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.03840446472168</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELM_CPh</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6298108100891113</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.11412334442139</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.94064227207656</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14.55588054656982</v>
+      </c>
+      <c r="G12" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELM_CPh</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7025114297866821</v>
+      </c>
+      <c r="D13" t="n">
+        <v>123.419563293457</v>
+      </c>
+      <c r="E13" t="n">
+        <v>163.4491570890624</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19.65658760070801</v>
+      </c>
+      <c r="G13" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELM_CPh</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6637929081916809</v>
+      </c>
+      <c r="D14" t="n">
+        <v>135.3253173828125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>185.9436658641536</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.99735546112061</v>
+      </c>
+      <c r="G14" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELM_CPh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1679710149765015</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.673613548278809</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.953433887051751</v>
+      </c>
+      <c r="F15" t="n">
+        <v>105.3449172973633</v>
+      </c>
+      <c r="G15" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELM_CPh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7565872669219971</v>
+      </c>
+      <c r="D16" t="n">
+        <v>28.29303169250488</v>
+      </c>
+      <c r="E16" t="n">
+        <v>46.7888270416934</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17.83907890319824</v>
+      </c>
+      <c r="G16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELM_CPr</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7142519950866699</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.945888519287109</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.24792462888484</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13.11842918395996</v>
+      </c>
+      <c r="G17" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELM_CPr</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7202000617980957</v>
+      </c>
+      <c r="D18" t="n">
+        <v>113.2393264770508</v>
+      </c>
+      <c r="E18" t="n">
+        <v>158.5153408388286</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17.65547180175781</v>
+      </c>
+      <c r="G18" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELM_CPr</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7137438654899597</v>
+      </c>
+      <c r="D19" t="n">
+        <v>117.7488784790039</v>
+      </c>
+      <c r="E19" t="n">
+        <v>171.5755288768623</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12.0651159286499</v>
+      </c>
+      <c r="G19" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELM_CPr</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1686940789222717</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.296514511108398</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.94997716936396</v>
+      </c>
+      <c r="F20" t="n">
+        <v>60.76778793334961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELM_CPr</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8032976388931274</v>
+      </c>
+      <c r="D21" t="n">
+        <v>32.66937255859375</v>
+      </c>
+      <c r="E21" t="n">
+        <v>42.06059036341204</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.31674289703369</v>
+      </c>
+      <c r="G21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELM_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7108281850814819</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.026004791259766</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12.32108282705907</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13.19511985778809</v>
+      </c>
+      <c r="G22" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELM_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6825900673866272</v>
+      </c>
+      <c r="D23" t="n">
+        <v>123.4762802124023</v>
+      </c>
+      <c r="E23" t="n">
+        <v>168.8331681627606</v>
+      </c>
+      <c r="F23" t="n">
+        <v>19.45990943908691</v>
+      </c>
+      <c r="G23" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELM_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6478633880615234</v>
+      </c>
+      <c r="D24" t="n">
+        <v>134.6038818359375</v>
+      </c>
+      <c r="E24" t="n">
+        <v>190.2976903104712</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.49306297302246</v>
+      </c>
+      <c r="G24" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELM_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.06005865335464478</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.573504447937012</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.453485562290592</v>
+      </c>
+      <c r="F25" t="n">
+        <v>72.18932342529297</v>
+      </c>
+      <c r="G25" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELM_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7723556160926819</v>
+      </c>
+      <c r="D26" t="n">
+        <v>34.42919158935547</v>
+      </c>
+      <c r="E26" t="n">
+        <v>45.2479618519753</v>
+      </c>
+      <c r="F26" t="n">
+        <v>16.14576721191406</v>
+      </c>
+      <c r="G26" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELM_CNN</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5490148663520813</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.58590412139893</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15.38693146511381</v>
+      </c>
+      <c r="F27" t="n">
+        <v>14.52353572845459</v>
+      </c>
+      <c r="G27" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELM_CNN</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6657894849777222</v>
+      </c>
+      <c r="D28" t="n">
+        <v>129.5022430419922</v>
+      </c>
+      <c r="E28" t="n">
+        <v>173.2437543968036</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20.73333930969238</v>
+      </c>
+      <c r="G28" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELM_CNN</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6921981573104858</v>
+      </c>
+      <c r="D29" t="n">
+        <v>126.4195022583008</v>
+      </c>
+      <c r="E29" t="n">
+        <v>177.9154084898916</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13.35869026184082</v>
+      </c>
+      <c r="G29" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELM_CNN</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1599842309951782</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.686574459075928</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.991515906075066</v>
+      </c>
+      <c r="F30" t="n">
+        <v>90.8973388671875</v>
+      </c>
+      <c r="G30" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELM_CNN</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6978990435600281</v>
+      </c>
+      <c r="D31" t="n">
+        <v>39.40826797485352</v>
+      </c>
+      <c r="E31" t="n">
+        <v>52.12506323062711</v>
+      </c>
+      <c r="F31" t="n">
+        <v>22.37581253051758</v>
+      </c>
+      <c r="G31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FCNN</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6752889156341553</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.661319732666016</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13.05627994196094</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13.47266387939453</v>
+      </c>
+      <c r="G32" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FCNN</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7494185566902161</v>
+      </c>
+      <c r="D33" t="n">
+        <v>113.0776824951172</v>
+      </c>
+      <c r="E33" t="n">
+        <v>150.0106116038129</v>
+      </c>
+      <c r="F33" t="n">
+        <v>18.67419242858887</v>
+      </c>
+      <c r="G33" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FCNN</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7145499587059021</v>
+      </c>
+      <c r="D34" t="n">
+        <v>125.5259552001953</v>
+      </c>
+      <c r="E34" t="n">
+        <v>171.3337785489919</v>
+      </c>
+      <c r="F34" t="n">
+        <v>14.30679988861084</v>
+      </c>
+      <c r="G34" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FCNN</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1694657206535339</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5.546847343444824</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.946286842221178</v>
+      </c>
+      <c r="F35" t="n">
+        <v>76.57308959960938</v>
+      </c>
+      <c r="G35" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FCNN</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6888132691383362</v>
+      </c>
+      <c r="D36" t="n">
+        <v>38.92192840576172</v>
+      </c>
+      <c r="E36" t="n">
+        <v>52.90309352663132</v>
+      </c>
+      <c r="F36" t="n">
+        <v>22.66733360290527</v>
+      </c>
+      <c r="G36" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FCNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6572194695472717</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10.09326076507568</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13.41463807370283</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14.21858692169189</v>
+      </c>
+      <c r="G37" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FCNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.742882251739502</v>
+      </c>
+      <c r="D38" t="n">
+        <v>116.8503189086914</v>
+      </c>
+      <c r="E38" t="n">
+        <v>151.9545059384552</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17.95049285888672</v>
+      </c>
+      <c r="G38" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FCNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7222380638122559</v>
+      </c>
+      <c r="D39" t="n">
+        <v>118.4166564941406</v>
+      </c>
+      <c r="E39" t="n">
+        <v>169.0107418461176</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12.69673442840576</v>
+      </c>
+      <c r="G39" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FCNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2235811948776245</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.406611442565918</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.683046368958628</v>
+      </c>
+      <c r="F40" t="n">
+        <v>78.23203277587891</v>
+      </c>
+      <c r="G40" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FCNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7761210203170776</v>
+      </c>
+      <c r="D41" t="n">
+        <v>33.14486312866211</v>
+      </c>
+      <c r="E41" t="n">
+        <v>44.87218583402682</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15.70097541809082</v>
+      </c>
+      <c r="G41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FCNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6911423206329346</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.613653182983398</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.73356856150493</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13.94058609008789</v>
+      </c>
+      <c r="G42" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>FCNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6444221138954163</v>
+      </c>
+      <c r="D43" t="n">
+        <v>135.8660888671875</v>
+      </c>
+      <c r="E43" t="n">
+        <v>178.6960255049059</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21.29636764526367</v>
+      </c>
+      <c r="G43" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>FCNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.6971422433853149</v>
+      </c>
+      <c r="D44" t="n">
+        <v>136.1064910888672</v>
+      </c>
+      <c r="E44" t="n">
+        <v>176.4807222120875</v>
+      </c>
+      <c r="F44" t="n">
+        <v>15.80667018890381</v>
+      </c>
+      <c r="G44" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FCNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.2608819603919983</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.050356388092041</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7.496220462875097</v>
+      </c>
+      <c r="F45" t="n">
+        <v>56.74118804931641</v>
+      </c>
+      <c r="G45" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FCNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7331733703613281</v>
+      </c>
+      <c r="D46" t="n">
+        <v>40.90342330932617</v>
+      </c>
+      <c r="E46" t="n">
+        <v>48.98748245725636</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20.84599685668945</v>
+      </c>
+      <c r="G46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.501115620136261</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11.66563034057617</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16.18344053526918</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15.63455772399902</v>
+      </c>
+      <c r="G47" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6427444219589233</v>
+      </c>
+      <c r="D48" t="n">
+        <v>137.7819671630859</v>
+      </c>
+      <c r="E48" t="n">
+        <v>179.1171055482976</v>
+      </c>
+      <c r="F48" t="n">
+        <v>23.1845645904541</v>
+      </c>
+      <c r="G48" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.7006881237030029</v>
+      </c>
+      <c r="D49" t="n">
+        <v>141.0380249023438</v>
+      </c>
+      <c r="E49" t="n">
+        <v>175.4445636714771</v>
+      </c>
+      <c r="F49" t="n">
+        <v>15.67945003509521</v>
+      </c>
+      <c r="G49" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1451148986816406</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.84557580947876</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.061935523329632</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.96406555175781</v>
+      </c>
+      <c r="G50" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5535717606544495</v>
+      </c>
+      <c r="D51" t="n">
+        <v>51.03395843505859</v>
+      </c>
+      <c r="E51" t="n">
+        <v>63.36455165350734</v>
+      </c>
+      <c r="F51" t="n">
+        <v>29.05100631713867</v>
+      </c>
+      <c r="G51" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5718681812286377</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10.92857933044434</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14.9920032801996</v>
+      </c>
+      <c r="F52" t="n">
+        <v>15.13830757141113</v>
+      </c>
+      <c r="G52" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.726893424987793</v>
+      </c>
+      <c r="D53" t="n">
+        <v>120.119270324707</v>
+      </c>
+      <c r="E53" t="n">
+        <v>156.6078776554679</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20.33490943908691</v>
+      </c>
+      <c r="G53" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.725920557975769</v>
+      </c>
+      <c r="D54" t="n">
+        <v>126.2769012451172</v>
+      </c>
+      <c r="E54" t="n">
+        <v>167.8866514478593</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13.88485622406006</v>
+      </c>
+      <c r="G54" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1592357754707336</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5.700303077697754</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7.995075379016892</v>
+      </c>
+      <c r="F55" t="n">
+        <v>88.67958068847656</v>
+      </c>
+      <c r="G55" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.6417232751846313</v>
+      </c>
+      <c r="D56" t="n">
+        <v>44.48977279663086</v>
+      </c>
+      <c r="E56" t="n">
+        <v>56.76489600068646</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20.1359806060791</v>
+      </c>
+      <c r="G56" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5211279988288879</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11.12839221954346</v>
+      </c>
+      <c r="E57" t="n">
+        <v>15.85552504840338</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15.13913917541504</v>
+      </c>
+      <c r="G57" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.6266394853591919</v>
+      </c>
+      <c r="D58" t="n">
+        <v>141.9320526123047</v>
+      </c>
+      <c r="E58" t="n">
+        <v>183.1098543224804</v>
+      </c>
+      <c r="F58" t="n">
+        <v>22.06474685668945</v>
+      </c>
+      <c r="G58" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.6239458322525024</v>
+      </c>
+      <c r="D59" t="n">
+        <v>157.7032775878906</v>
+      </c>
+      <c r="E59" t="n">
+        <v>196.6541717870485</v>
+      </c>
+      <c r="F59" t="n">
+        <v>17.30989837646484</v>
+      </c>
+      <c r="G59" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1978373527526855</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.555185794830322</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7.809381946134741</v>
+      </c>
+      <c r="F60" t="n">
+        <v>78.11100006103516</v>
+      </c>
+      <c r="G60" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>FCNN_ElemFeat_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5712302923202515</v>
+      </c>
+      <c r="D61" t="n">
+        <v>51.36248779296875</v>
+      </c>
+      <c r="E61" t="n">
+        <v>62.09870781037839</v>
+      </c>
+      <c r="F61" t="n">
+        <v>23.79512214660645</v>
+      </c>
+      <c r="G61" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.499600887298584</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.6547794342041</v>
+      </c>
+      <c r="E62" t="n">
+        <v>16.20799013116052</v>
+      </c>
+      <c r="F62" t="n">
+        <v>15.85984039306641</v>
+      </c>
+      <c r="G62" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.6177217960357666</v>
+      </c>
+      <c r="D63" t="n">
+        <v>147.6602478027344</v>
+      </c>
+      <c r="E63" t="n">
+        <v>185.2837351199506</v>
+      </c>
+      <c r="F63" t="n">
+        <v>22.33494758605957</v>
+      </c>
+      <c r="G63" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6285456418991089</v>
+      </c>
+      <c r="D64" t="n">
+        <v>161.0783843994141</v>
+      </c>
+      <c r="E64" t="n">
+        <v>195.4477531688456</v>
+      </c>
+      <c r="F64" t="n">
+        <v>19.10381698608398</v>
+      </c>
+      <c r="G64" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.216161847114563</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.644326686859131</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7.719668437972989</v>
+      </c>
+      <c r="F65" t="n">
+        <v>90.71969604492188</v>
+      </c>
+      <c r="G65" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6090514659881592</v>
+      </c>
+      <c r="D66" t="n">
+        <v>46.10214614868164</v>
+      </c>
+      <c r="E66" t="n">
+        <v>59.29667531257549</v>
+      </c>
+      <c r="F66" t="n">
+        <v>27.29640960693359</v>
+      </c>
+      <c r="G66" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6005024909973145</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10.91299629211426</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14.481980275002</v>
+      </c>
+      <c r="F67" t="n">
+        <v>16.13651275634766</v>
+      </c>
+      <c r="G67" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.7421231269836426</v>
+      </c>
+      <c r="D68" t="n">
+        <v>116.4885864257812</v>
+      </c>
+      <c r="E68" t="n">
+        <v>152.1786509234295</v>
+      </c>
+      <c r="F68" t="n">
+        <v>19.14165687561035</v>
+      </c>
+      <c r="G68" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7065761089324951</v>
+      </c>
+      <c r="D69" t="n">
+        <v>119.8849334716797</v>
+      </c>
+      <c r="E69" t="n">
+        <v>173.7103484431771</v>
+      </c>
+      <c r="F69" t="n">
+        <v>13.30699157714844</v>
+      </c>
+      <c r="G69" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1092612147331238</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5.653297424316406</v>
+      </c>
+      <c r="E70" t="n">
+        <v>8.229257111515102</v>
+      </c>
+      <c r="F70" t="n">
+        <v>76.05490875244141</v>
+      </c>
+      <c r="G70" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CNN_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7378878593444824</v>
+      </c>
+      <c r="D71" t="n">
+        <v>34.48787307739258</v>
+      </c>
+      <c r="E71" t="n">
+        <v>48.55277864811782</v>
+      </c>
+      <c r="F71" t="n">
+        <v>17.34387397766113</v>
+      </c>
+      <c r="G71" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6384423971176147</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10.02977466583252</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.77715879164195</v>
+      </c>
+      <c r="F72" t="n">
+        <v>14.51508712768555</v>
+      </c>
+      <c r="G72" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.7054683566093445</v>
+      </c>
+      <c r="D73" t="n">
+        <v>118.8383331298828</v>
+      </c>
+      <c r="E73" t="n">
+        <v>162.6348058630901</v>
+      </c>
+      <c r="F73" t="n">
+        <v>18.74917793273926</v>
+      </c>
+      <c r="G73" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.7215672731399536</v>
+      </c>
+      <c r="D74" t="n">
+        <v>124.9888305664062</v>
+      </c>
+      <c r="E74" t="n">
+        <v>169.2147131328272</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13.76846027374268</v>
+      </c>
+      <c r="G74" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1366583108901978</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.404829978942871</v>
+      </c>
+      <c r="E75" t="n">
+        <v>8.101712231921546</v>
+      </c>
+      <c r="F75" t="n">
+        <v>70.17424011230469</v>
+      </c>
+      <c r="G75" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CNN_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.7880499958992004</v>
+      </c>
+      <c r="D76" t="n">
+        <v>36.78762435913086</v>
+      </c>
+      <c r="E76" t="n">
+        <v>43.66035178923064</v>
+      </c>
+      <c r="F76" t="n">
+        <v>16.68019866943359</v>
+      </c>
+      <c r="G76" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.4022376537322998</v>
+      </c>
+      <c r="D77" t="n">
+        <v>12.61001682281494</v>
+      </c>
+      <c r="E77" t="n">
+        <v>17.71475632213817</v>
+      </c>
+      <c r="F77" t="n">
+        <v>17.00571441650391</v>
+      </c>
+      <c r="G77" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6578892469406128</v>
+      </c>
+      <c r="D78" t="n">
+        <v>134.5609893798828</v>
+      </c>
+      <c r="E78" t="n">
+        <v>175.2794086416029</v>
+      </c>
+      <c r="F78" t="n">
+        <v>23.90752220153809</v>
+      </c>
+      <c r="G78" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6591576933860779</v>
+      </c>
+      <c r="D79" t="n">
+        <v>144.7646636962891</v>
+      </c>
+      <c r="E79" t="n">
+        <v>187.2210633515898</v>
+      </c>
+      <c r="F79" t="n">
+        <v>16.68830871582031</v>
+      </c>
+      <c r="G79" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1324149370193481</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.924724578857422</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.121597751466217</v>
+      </c>
+      <c r="F80" t="n">
+        <v>94.7916259765625</v>
+      </c>
+      <c r="G80" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5642228126525879</v>
+      </c>
+      <c r="D81" t="n">
+        <v>46.24445343017578</v>
+      </c>
+      <c r="E81" t="n">
+        <v>62.60410080418055</v>
+      </c>
+      <c r="F81" t="n">
+        <v>31.06634902954102</v>
+      </c>
+      <c r="G81" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Attention_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.4311496615409851</v>
+      </c>
+      <c r="D82" t="n">
+        <v>12.59576797485352</v>
+      </c>
+      <c r="E82" t="n">
+        <v>17.28104161831869</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17.32235527038574</v>
+      </c>
+      <c r="G82" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Attention_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5136860013008118</v>
+      </c>
+      <c r="D83" t="n">
+        <v>158.6279449462891</v>
+      </c>
+      <c r="E83" t="n">
+        <v>208.9805706429428</v>
+      </c>
+      <c r="F83" t="n">
+        <v>25.23776054382324</v>
+      </c>
+      <c r="G83" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Attention_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5319160223007202</v>
+      </c>
+      <c r="D84" t="n">
+        <v>176.5724487304688</v>
+      </c>
+      <c r="E84" t="n">
+        <v>219.401618755423</v>
+      </c>
+      <c r="F84" t="n">
+        <v>19.66336822509766</v>
+      </c>
+      <c r="G84" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Attention_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1270959377288818</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6.10478401184082</v>
+      </c>
+      <c r="E85" t="n">
+        <v>8.1464555767742</v>
+      </c>
+      <c r="F85" t="n">
+        <v>105.8893814086914</v>
+      </c>
+      <c r="G85" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Attention_MSHBranched</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.6601294279098511</v>
+      </c>
+      <c r="D86" t="n">
+        <v>45.00576400756836</v>
+      </c>
+      <c r="E86" t="n">
+        <v>55.28754292192546</v>
+      </c>
+      <c r="F86" t="n">
+        <v>25.57751846313477</v>
+      </c>
+      <c r="G86" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Attention_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.478456974029541</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.98453140258789</v>
+      </c>
+      <c r="E87" t="n">
+        <v>16.546875</v>
+      </c>
+      <c r="F87" t="n">
+        <v>16.71992301940918</v>
+      </c>
+      <c r="G87" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Attention_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4985806941986084</v>
+      </c>
+      <c r="D88" t="n">
+        <v>167.4583282470703</v>
+      </c>
+      <c r="E88" t="n">
+        <v>212.2013066200347</v>
+      </c>
+      <c r="F88" t="n">
+        <v>28.35634422302246</v>
+      </c>
+      <c r="G88" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Attention_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.4911816120147705</v>
+      </c>
+      <c r="D89" t="n">
+        <v>189.0986022949219</v>
+      </c>
+      <c r="E89" t="n">
+        <v>228.7490778669938</v>
+      </c>
+      <c r="F89" t="n">
+        <v>21.1151008605957</v>
+      </c>
+      <c r="G89" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Attention_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1475579142570496</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.796009540557861</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8.050407863733422</v>
+      </c>
+      <c r="F90" t="n">
+        <v>91.34776306152344</v>
+      </c>
+      <c r="G90" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Attention_FullyBranched</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.6181053519248962</v>
+      </c>
+      <c r="D91" t="n">
+        <v>41.94670104980469</v>
+      </c>
+      <c r="E91" t="n">
+        <v>58.60603204609146</v>
+      </c>
+      <c r="F91" t="n">
+        <v>24.47585105895996</v>
+      </c>
+      <c r="G91" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>TiAlloyNet</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>YM</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.561847984790802</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10.57607269287109</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15.16642800167785</v>
+      </c>
+      <c r="F92" t="n">
+        <v>15.05388450622559</v>
+      </c>
+      <c r="G92" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TiAlloyNet</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>YS</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.5858703851699829</v>
+      </c>
+      <c r="D93" t="n">
+        <v>145.1711578369141</v>
+      </c>
+      <c r="E93" t="n">
+        <v>192.8482442556841</v>
+      </c>
+      <c r="F93" t="n">
+        <v>21.31339836120605</v>
+      </c>
+      <c r="G93" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>TiAlloyNet</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>UTS</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.6772656440734863</v>
+      </c>
+      <c r="D94" t="n">
+        <v>143.4879608154297</v>
+      </c>
+      <c r="E94" t="n">
+        <v>182.1799312321475</v>
+      </c>
+      <c r="F94" t="n">
+        <v>16.73653793334961</v>
+      </c>
+      <c r="G94" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TiAlloyNet</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.277100145816803</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.885782718658447</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7.413520945958277</v>
+      </c>
+      <c r="F95" t="n">
+        <v>64.47759246826172</v>
+      </c>
+      <c r="G95" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TiAlloyNet</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>HV</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.8370696306228638</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28.45928192138672</v>
-      </c>
-      <c r="E6" t="n">
-        <v>38.27996490189908</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.13739585876465</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="C96" t="n">
+        <v>0.6904683113098145</v>
+      </c>
+      <c r="D96" t="n">
+        <v>41.25890350341797</v>
+      </c>
+      <c r="E96" t="n">
+        <v>52.76222644148463</v>
+      </c>
+      <c r="F96" t="n">
+        <v>21.22202491760254</v>
+      </c>
+      <c r="G96" t="n">
         <v>18</v>
       </c>
     </row>
